--- a/Voldemort_spec.xlsx
+++ b/Voldemort_spec.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asraa/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB1855-A65E-BB4D-9E53-523E228FFB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7CC2FB-E69A-3643-9C2B-9849913F73D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F44E8EB6-1E4C-5746-AC4C-68545BF6CD7C}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{F44E8EB6-1E4C-5746-AC4C-68545BF6CD7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="739">
+  <si>
+    <t>java</t>
+  </si>
   <si>
     <t>Release 1.10.26 8/30/2017</t>
   </si>
@@ -2224,13 +2228,34 @@
   </si>
   <si>
     <t>Advancement after Voldemort versionn 0.9</t>
+  </si>
+  <si>
+    <t>nose 0.11</t>
+  </si>
+  <si>
+    <t>simplejson 2.1.1</t>
+  </si>
+  <si>
+    <t>google protobuf 2.3.0</t>
+  </si>
+  <si>
+    <t>voldemort 1.10.25</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>In memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python client dependecy </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2242,6 +2267,12 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2265,9 +2296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2584,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A47FC7-4FC2-104C-A807-42B4519326FC}">
   <dimension ref="C2:E744"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2596,40 +2628,40 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
@@ -2644,3426 +2676,3484 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E113" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E114" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E117" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E118" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E133" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E134" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E145" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E149" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E151" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E152" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E158" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E159" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E160" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E161" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E166" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E167" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E168" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E169" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E171" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E172" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E174" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E175" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E176" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E178" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E180" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E181" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E182" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E183" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E184" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E185" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E186" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E187" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E188" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E189" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E190" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E191" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E192" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E193" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E194" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E195" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E197" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E198" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E199" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E200" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E201" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E202" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E203" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E204" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E205" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E206" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E207" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E210" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E211" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E212" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E213" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E214" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E215" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E216" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E217" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E218" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E220" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E221" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E224" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E225" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E226" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E227" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E229" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E230" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E231" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E232" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E233" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E235" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E236" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E237" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E238" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E239" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E240" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E241" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E242" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C244" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E244" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="245" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E245" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E246" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C248" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E248" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E249" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E250" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E251" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E252" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C254" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E254" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="255" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E255" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E256" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="257" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E257" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="258" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E258" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C259" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E259" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E260" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E261" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E262" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E263" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E264" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="265" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C267" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E267" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E268" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E269" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E270" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E271" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E272" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E273" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E274" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E275" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E276" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E277" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E278" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="279" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E279" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C281" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E281" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="282" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E282" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E283" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E284" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E285" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E286" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E287" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E288" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E289" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E290" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E291" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E292" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E293" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E294" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C296" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E296" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E297" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E298" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="299" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E299" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C301" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E301" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E302" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E303" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="304" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E304" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E305" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E306" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E307" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E308" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E309" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E310" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E311" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E312" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="314" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C314" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E314" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="315" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E315" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E316" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E317" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E318" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E319" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="320" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E320" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E321" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E322" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C324" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E324" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="325" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E325" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="326" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E326" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C328" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E328" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E329" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="330" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E330" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E331" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E332" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C334" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E334" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="336" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C336" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E336" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E337" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E338" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E339" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C341" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E341" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C343" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E344" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C346" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E346" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E347" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E348" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E349" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C351" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E351" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C353" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E353" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E354" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="355" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E355" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E356" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E357" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C359" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E359" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E360" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E361" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="362" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E362" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E363" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="365" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C365" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E365" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E366" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="367" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E367" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E368" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C370" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E370" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C372" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E372" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C374" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E374" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E375" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E376" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E377" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="379" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C379" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E379" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="381" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C381" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E381" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C383" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E383" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E384" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="385" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E385" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E386" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="388" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C388" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E388" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="389" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E389" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="390" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E390" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="392" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C392" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E392" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="393" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E393" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="394" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E394" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="395" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E395" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="396" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E396" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="397" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E397" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="398" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E398" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="399" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E399" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C401" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E401" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="403" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C403" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E403" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="404" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E404" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E405" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="406" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E406" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C408" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E408" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E409" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E410" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E411" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="413" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C413" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E413" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C415" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E415" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E416" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="418" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C418" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E418" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="419" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E419" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="420" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E420" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="422" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C422" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E422" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="423" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E423" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="424" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E424" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="425" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E425" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="426" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E426" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="428" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C428" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E428" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="429" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E429" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E430" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="431" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E431" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="432" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E432" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="433" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E433" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="435" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C435" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E435" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="437" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C437" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E437" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="438" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E438" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="439" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E439" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="441" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C441" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E441" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="443" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C443" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E443" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="444" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E444" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="446" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C446" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E446" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="448" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C448" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E448" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="449" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E449" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="450" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E450" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="451" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E451" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="452" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E452" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="453" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E453" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="455" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C455" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E455" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="456" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E456" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="457" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E457" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="458" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E458" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="460" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C460" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E460" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="461" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E461" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="463" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C463" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E463" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="465" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C465" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E465" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="466" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E466" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="468" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C468" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E468" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="469" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E469" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="470" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E470" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="471" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E471" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="473" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C473" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E473" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C475" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E475" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="476" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E476" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="477" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E477" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="478" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E478" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="479" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E479" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="480" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E480" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="481" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E481" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E482" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C484" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E484" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="485" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E485" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="486" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E486" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="487" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E487" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="488" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E488" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="489" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E489" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="490" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E490" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="491" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E491" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="492" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E492" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="494" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C494" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E494" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="495" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E495" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="496" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E496" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="497" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E497" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="498" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E498" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="500" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C500" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E500" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="501" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E501" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="502" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E502" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="503" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E503" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="504" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E504" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="506" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C506" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E506" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="507" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E507" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="508" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E508" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="510" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C510" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E510" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="511" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E511" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="513" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E513" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="514" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E514" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="515" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E515" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="516" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E516" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="517" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E517" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="518" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E518" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="519" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E519" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="520" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E520" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="521" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E521" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="522" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E522" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="523" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E523" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="524" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E524" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="525" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E525" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="526" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E526" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="527" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E527" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="528" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E528" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="529" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E529" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="530" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E530" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="531" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E531" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="532" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E532" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="533" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E533" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="534" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E534" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="535" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E535" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="536" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E536" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="537" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E537" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="538" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E538" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="539" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E539" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="540" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E540" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="541" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E541" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="542" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E542" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="543" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E543" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="544" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E544" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="545" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E545" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="546" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E546" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="547" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E547" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="548" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E548" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="549" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E549" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="551" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E551" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="552" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E552" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="553" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E553" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="555" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C555" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E555" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="557" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C557" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E557" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="559" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C559" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E559" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="560" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E560" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="561" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E561" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="562" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E562" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="563" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E563" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="564" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E564" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="565" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E565" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="566" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E566" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="567" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E567" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="568" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E568" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="569" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E569" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="571" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C571" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E571" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="572" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E572" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="573" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E573" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="574" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E574" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="576" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C576" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E576" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E577" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E578" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E579" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E580" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E581" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E582" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="583" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E583" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="584" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E584" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E585" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="586" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E586" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="587" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E587" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="588" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E588" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E589" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="590" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E590" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="591" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E591" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="592" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E592" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E593" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E594" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="595" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E595" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E596" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E597" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E598" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E599" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E600" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E601" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E602" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="603" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E603" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E604" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="605" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E605" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E606" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E607" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="608" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E608" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="609" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E609" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="610" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E610" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="611" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E611" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="612" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E612" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="613" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E613" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="614" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E614" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="615" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E615" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="616" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E616" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="617" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E617" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="618" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E618" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="619" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E619" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="620" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E620" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="621" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E621" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="622" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E622" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="623" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E623" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="624" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E624" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="625" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E625" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="626" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E626" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="627" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E627" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="628" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E628" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="629" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E629" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="630" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E630" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="631" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E631" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="632" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E632" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="633" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E633" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="634" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E634" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="635" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E635" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="636" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E636" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="637" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E637" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="638" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E638" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="639" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E639" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="640" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E640" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="641" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E641" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="642" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E642" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="643" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E643" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="644" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E644" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="646" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C646" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E646" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="647" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E647" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="648" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E648" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="650" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C650" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E650" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="651" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E651" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="652" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E652" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="653" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E653" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="654" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E654" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="656" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C656" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E656" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="657" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E657" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="658" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E658" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="660" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C660" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E660" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="661" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E661" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="662" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E662" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="664" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C664" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E664" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="665" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E665" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="666" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E666" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="667" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E667" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="669" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C669" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E669" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="670" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E670" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="671" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E671" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="672" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E672" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="673" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E673" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="674" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E674" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="675" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E675" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="676" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E676" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="677" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E677" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="678" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E678" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="679" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E679" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="680" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E680" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="681" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E681" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="682" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E682" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="683" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E683" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="684" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E684" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="685" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E685" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="687" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C687" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E687" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="688" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E688" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="689" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E689" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="690" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E690" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="691" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E691" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="692" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E692" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="693" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E693" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="694" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E694" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="696" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C696" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E696" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="697" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E697" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="698" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E698" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="699" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E699" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="702" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E702" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="703" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E703" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="704" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E704" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="705" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E705" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="707" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C707" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E707" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="708" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E708" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="709" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E709" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="711" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C711" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E711" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="712" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E712" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="713" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E713" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="714" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E714" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="716" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C716" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E716" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="717" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E717" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="718" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E718" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="720" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C720" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E720" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="721" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E721" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="722" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E722" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="724" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C724" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E724" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="725" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E725" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="726" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E726" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="727" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E727" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="729" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E729" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="730" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E730" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="731" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E731" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="732" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E732" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="733" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E733" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="734" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E734" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="735" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E735" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="736" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E736" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="738" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C738" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E738" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="739" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E739" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="740" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E740" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="741" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E741" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="742" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E742" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="743" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E743" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="744" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E744" t="s">
-        <v>728</v>
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C9363-5E36-4747-A0F8-1DF0FE31455B}">
+  <dimension ref="B4:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
